--- a/biology/Botanique/Gymnosperme/Gymnosperme.xlsx
+++ b/biology/Botanique/Gymnosperme/Gymnosperme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnospermae
 Les Gymnospermes (Gymnospermae, du grec γυμνός / gymnós, « nu » et σπέρμα / spérma, « graine ») sont un groupe de Spermatophytes (plantes à graines) qui comprend les conifères, les cycadales, le Ginkgo et les gnétophytes. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de soixante-quinze à quatre-vingt genres et environ huit cents à mille espèces actuellement, répartis en quatorze familles. Mais il a existé jusqu'à 20 000 espèces. La flore actuelle est principalement représentée par les conifères qui comptent sept familles. On ne rencontre que des plantes ligneuses c’est-à-dire des arbres et des arbustes (on trouve quelques espèces herbacées à l'état fossile). Elles ont un cambium classique bifacial qui va donner vers l'intérieur du xylème et vers l'extérieur du phloème. Le bois est homoxylé (que des trachéides) sauf chez les Gnetales et leurs organes reproducteurs (qui ne sont pas des fleurs) sont toujours unisexués.
 </t>
@@ -545,7 +559,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les espèces dioïques, les sexes sont séparés alors que chez les espèces monoïques, les structures reproductrices mâles et femelles sont portées par un même pied. Les organes reproducteurs sont localisés au niveau des cônes. Les grains de pollen sont présents dans les cônes mâles et les cônes femelles abritent les ovules qui se transforment en graines chez les conifères et les chlamydospermes. La graine libérée contient un embryon et peut germer lorsqu'elle se pose dans un habitat propice.
 Chez les Gymnospermes, la fécondation est simple, c'est-à-dire qu'un seul spermatozoïde féconde l'oosphère. Il s'agit d'une reproduction par siphonogamie, n'ayant pas besoin d'eau.
@@ -583,9 +599,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gymnospermes sont surtout abondantes dans les milieux froids où elles sont très largement dominantes, grâce à leur adaptation à la sécheresse et au froid, en particulier leurs feuilles fines et aciculaires[a] (nommées « aiguilles » pour cette raison) qui limitent la surface transpirante de la plante, à cuticule épaisse, à stomates enfoncés dans des puits ou des sillons, grâce aussi à leur endurcissement hivernal (fermeture des stomates, épaississement des tissus) et la permanence du feuillage qui permet au printemps une assimilation rapide sans attendre le développement de nouvelles aiguilles, préjudiciable pour une saison végétative courte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gymnospermes sont surtout abondantes dans les milieux froids où elles sont très largement dominantes, grâce à leur adaptation à la sécheresse et au froid, en particulier leurs feuilles fines et aciculaires[a] (nommées « aiguilles » pour cette raison) qui limitent la surface transpirante de la plante, à cuticule épaisse, à stomates enfoncés dans des puits ou des sillons, grâce aussi à leur endurcissement hivernal (fermeture des stomates, épaississement des tissus) et la permanence du feuillage qui permet au printemps une assimilation rapide sans attendre le développement de nouvelles aiguilles, préjudiciable pour une saison végétative courte.
 Cette physiologie permet aux plantes de devenir dominantes dans les régions bio-géographiques caractérisées par un climat froid :
 zonation en altitude : l'étagement et la composition sont liés à de nombreux facteurs comme la position de la chaîne de montagnes, le versant, les vents dominants. En France on peut distinguer quatre étages :
 collinéen (environ jusqu'à 800 m) : composé principalement de feuillus tels que les chênes,
@@ -623,12 +641,14 @@
           <t>Origine et diversité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le Dévonien moyen, deux groupes de végétaux, les Lycophytes et les Progymnospermes (Gymnospermes archaïques), acquièrent le port arborescent. Les Gymnospermes sont déjà représentées dans les forêts carbonifères (Cordaitales) où la végétation est dominée par les Ptéridophytes (fougères, prêles…)[4]. Au Permo-Trias marqué par un climat plus chaud et sec, la flore à larges feuilles (Ptéridospermales ou fougères à graines, Cordaitales) fait place à une nouvelle flore cosmopolite et oligotrophe à Progymnospermes (Ginkgo, Cycadales), à nouvelles Ptéridospermales (Dicroidium (en)) et Ptéridophytes, mais aussi à Gymnospermes avec des Conifères comme Voltzia[5].
-Le groupe des Gymnospermes connaît une grande extension et un maximum de diversification au Mésozoïque qui est souvent appelée « ère des Gymnospermes » [6] (simultanément, pour les vertébrés, c'est l'« ère des reptiles » car elle voit l'apogée des Dinosaures, les Gymnospermes et les fougères étant la source principale d'alimentation des dinosaures herbivores)[7], depuis les régions tropicales jusqu'aux habitats plus secs dont s'emparent les conifères et cycadales[8].
-Alors que le Crétacé voit l'avènement des Angiospermes, de nombreuses Gymnospermes s'éteignent et sont supplantées dans les régions tropicales, les survivantes possédant probablement l'aptitude physiologique requise pour s'adapter à des habitats xérophytes (feuilles en écaille de Cupressacées adaptées au climat sec, résineux qui constituent les forêts sempervirentes boréale et subalpine grâce à leur adaptation à la sécheresse et au froid, en particulier leurs feuilles fines et aciculaires[a] nommées « aiguilles » pour cette raison)[8].
-Au cénozoïque, les principales Gymnospermes modernes se répandent, en occupant leurs habitats actuels (Conifères adaptés au froid et aux sols pauvres, Cycadales dans les régions tropicales, Gingko sauvé de l'extinction par des moines bouddhistes chinois qui les ont élevé dans leurs temples, Gnetales à large répartition mais surtout en climat tropical)[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le Dévonien moyen, deux groupes de végétaux, les Lycophytes et les Progymnospermes (Gymnospermes archaïques), acquièrent le port arborescent. Les Gymnospermes sont déjà représentées dans les forêts carbonifères (Cordaitales) où la végétation est dominée par les Ptéridophytes (fougères, prêles…). Au Permo-Trias marqué par un climat plus chaud et sec, la flore à larges feuilles (Ptéridospermales ou fougères à graines, Cordaitales) fait place à une nouvelle flore cosmopolite et oligotrophe à Progymnospermes (Ginkgo, Cycadales), à nouvelles Ptéridospermales (Dicroidium (en)) et Ptéridophytes, mais aussi à Gymnospermes avec des Conifères comme Voltzia.
+Le groupe des Gymnospermes connaît une grande extension et un maximum de diversification au Mésozoïque qui est souvent appelée « ère des Gymnospermes »  (simultanément, pour les vertébrés, c'est l'« ère des reptiles » car elle voit l'apogée des Dinosaures, les Gymnospermes et les fougères étant la source principale d'alimentation des dinosaures herbivores), depuis les régions tropicales jusqu'aux habitats plus secs dont s'emparent les conifères et cycadales.
+Alors que le Crétacé voit l'avènement des Angiospermes, de nombreuses Gymnospermes s'éteignent et sont supplantées dans les régions tropicales, les survivantes possédant probablement l'aptitude physiologique requise pour s'adapter à des habitats xérophytes (feuilles en écaille de Cupressacées adaptées au climat sec, résineux qui constituent les forêts sempervirentes boréale et subalpine grâce à leur adaptation à la sécheresse et au froid, en particulier leurs feuilles fines et aciculaires[a] nommées « aiguilles » pour cette raison).
+Au cénozoïque, les principales Gymnospermes modernes se répandent, en occupant leurs habitats actuels (Conifères adaptés au froid et aux sols pauvres, Cycadales dans les régions tropicales, Gingko sauvé de l'extinction par des moines bouddhistes chinois qui les ont élevé dans leurs temples, Gnetales à large répartition mais surtout en climat tropical).
 </t>
         </is>
       </c>
@@ -659,10 +679,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-C'est sans doute Théophraste (v. 374 av. J.-C. – v.286 av. J.-C.) qui, le premier, distingue les Angiospermes des Gymnospermes. John Ray utilise, à la fin du XVIIe siècle, ces différences dans sa classification qui sont les premières tentatives de classification naturelle de l'époque moderne.
-Classification
-Les Gymnospermes comprennent les six ordres en quatre classes :
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est sans doute Théophraste (v. 374 av. J.-C. – v.286 av. J.-C.) qui, le premier, distingue les Angiospermes des Gymnospermes. John Ray utilise, à la fin du XVIIe siècle, ces différences dans sa classification qui sont les premières tentatives de classification naturelle de l'époque moderne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gymnosperme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gymnosperme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gymnospermes comprennent les six ordres en quatre classes :
 Sous-classe des Pinidae
 Ordre des Pinales (une famille)
 Famille des Pinacées
@@ -688,38 +748,75 @@
 Famille des Ephedraceae
 Ordre des Welwitschiales (une famille)
 Famille des Welwitschiaceae
-Phylogénie
-Il s'agit d'un groupe considéré comme paraphylétique[b], regroupant Cycadophytes, Ginkgoales et Coniférophytes avec les Gnétophytes supposées apparentées aux Angiospermes sur des critères morphologiques. Mais les analyses moléculaires les plus récentes attestent plutôt la monophylie du groupe, les seules Gymnospermes plus proches des Angiospermes étant des groupes fossiles. Les Gnétales seraient le groupe frère des Pinales, voire des Pinacées.
-Phylogénie des Acrogymnospermae[12],[13]
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Gymnosperme</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gymnosperme</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un groupe considéré comme paraphylétique[b], regroupant Cycadophytes, Ginkgoales et Coniférophytes avec les Gnétophytes supposées apparentées aux Angiospermes sur des critères morphologiques. Mais les analyses moléculaires les plus récentes attestent plutôt la monophylie du groupe, les seules Gymnospermes plus proches des Angiospermes étant des groupes fossiles. Les Gnétales seraient le groupe frère des Pinales, voire des Pinacées.
+Phylogénie des Acrogymnospermae,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gymnosperme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gymnosperme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Records</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les Gymnospermes sont les arbres de tous les records :
 de hauteur : 111,50 m pour le Sequoia sempervirens et jusqu'à 110 m pour le Douglas (Pseudotsuga menziesii) ; les séquoias géants, eux, ne font « que » 95 m. En Europe, les conifères sont plus petits avec comme arbre le plus grand un séquoia de 53 m. Le plus grand arbre connu à ce jour n'appartient pas aux Gymnospermes mais est un eucalyptus de 147 m de haut (vrai il y a 50 ans[Quand ?]) ;
